--- a/src/assets/data/3_Docencia/Caracterizacion/DO-FOR-001 Listado maestro de documentos Dirección Docencia.xlsx
+++ b/src/assets/data/3_Docencia/Caracterizacion/DO-FOR-001 Listado maestro de documentos Dirección Docencia.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId4" roundtripDataSignature="AMtx7mjxMItsYt/nwGE56KvP9irpbxDAwg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId4" roundtripDataSignature="AMtx7midHDl5+OgRTSkhWQI5s1TQCFI1xw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>DOCENCIA</t>
   </si>
@@ -73,12 +73,6 @@
   </si>
   <si>
     <t>DO-PRO-003</t>
-  </si>
-  <si>
-    <t>Procedimiento Incentivo-Beca</t>
-  </si>
-  <si>
-    <t>DO-PRO-004</t>
   </si>
   <si>
     <t>Instructivo para administrador Plan de vida académico</t>
@@ -430,7 +424,7 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -479,7 +473,7 @@
     <xdr:ext cx="1076325" cy="866775"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -507,7 +501,7 @@
     <xdr:ext cx="866775" cy="866775"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -531,7 +525,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -693,7 +687,9 @@
       <c r="C5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="23">
+        <v>43472.0</v>
+      </c>
       <c r="E5" s="24" t="s">
         <v>5</v>
       </c>
@@ -727,7 +723,9 @@
       <c r="C6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="23">
+        <v>43472.0</v>
+      </c>
       <c r="E6" s="24" t="s">
         <v>5</v>
       </c>
@@ -761,7 +759,9 @@
       <c r="C7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="23">
+        <v>43472.0</v>
+      </c>
       <c r="E7" s="25" t="s">
         <v>5</v>
       </c>
@@ -795,7 +795,9 @@
       <c r="C8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="23">
+        <v>43472.0</v>
+      </c>
       <c r="E8" s="24" t="s">
         <v>5</v>
       </c>
@@ -829,7 +831,9 @@
       <c r="C9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="23">
+        <v>43472.0</v>
+      </c>
       <c r="E9" s="24" t="s">
         <v>5</v>
       </c>
@@ -855,16 +859,18 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
     </row>
-    <row r="10">
-      <c r="A10" s="21" t="s">
+    <row r="10" ht="15.0" customHeight="1">
+      <c r="A10" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="18"/>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24" t="s">
+      <c r="D10" s="23">
+        <v>43472.0</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="6"/>
@@ -897,7 +903,9 @@
       <c r="C11" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="23"/>
+      <c r="D11" s="23">
+        <v>43472.0</v>
+      </c>
       <c r="E11" s="25" t="s">
         <v>5</v>
       </c>
@@ -931,7 +939,9 @@
       <c r="C12" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="23"/>
+      <c r="D12" s="23">
+        <v>43472.0</v>
+      </c>
       <c r="E12" s="25" t="s">
         <v>5</v>
       </c>
@@ -962,10 +972,12 @@
         <v>27</v>
       </c>
       <c r="B13" s="18"/>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="23"/>
+      <c r="D13" s="23">
+        <v>43472.0</v>
+      </c>
       <c r="E13" s="25" t="s">
         <v>5</v>
       </c>
@@ -997,10 +1009,12 @@
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="28" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="25" t="s">
+      <c r="D14" s="23">
+        <v>43472.0</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="6"/>
@@ -1027,13 +1041,15 @@
     </row>
     <row r="15" ht="15.0" customHeight="1">
       <c r="A15" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="28" t="s">
-        <v>2</v>
+      <c r="D15" s="23">
+        <v>43472.0</v>
       </c>
-      <c r="D15" s="23"/>
       <c r="E15" s="24" t="s">
         <v>5</v>
       </c>
@@ -1067,7 +1083,9 @@
       <c r="C16" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="23"/>
+      <c r="D16" s="23">
+        <v>43472.0</v>
+      </c>
       <c r="E16" s="24" t="s">
         <v>5</v>
       </c>
@@ -1093,7 +1111,7 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
     </row>
-    <row r="17" ht="15.0" customHeight="1">
+    <row r="17">
       <c r="A17" s="26" t="s">
         <v>34</v>
       </c>
@@ -1101,8 +1119,10 @@
       <c r="C17" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24" t="s">
+      <c r="D17" s="23">
+        <v>43472.0</v>
+      </c>
+      <c r="E17" s="25" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="6"/>
@@ -1135,7 +1155,9 @@
       <c r="C18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="23"/>
+      <c r="D18" s="23">
+        <v>43472.0</v>
+      </c>
       <c r="E18" s="25" t="s">
         <v>5</v>
       </c>
@@ -1169,7 +1191,9 @@
       <c r="C19" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="23"/>
+      <c r="D19" s="23">
+        <v>43472.0</v>
+      </c>
       <c r="E19" s="25" t="s">
         <v>5</v>
       </c>
@@ -1203,7 +1227,9 @@
       <c r="C20" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="23"/>
+      <c r="D20" s="23">
+        <v>43472.0</v>
+      </c>
       <c r="E20" s="25" t="s">
         <v>5</v>
       </c>
@@ -1237,7 +1263,9 @@
       <c r="C21" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="23"/>
+      <c r="D21" s="23">
+        <v>43472.0</v>
+      </c>
       <c r="E21" s="25" t="s">
         <v>5</v>
       </c>
@@ -1271,7 +1299,9 @@
       <c r="C22" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="23"/>
+      <c r="D22" s="23">
+        <v>43472.0</v>
+      </c>
       <c r="E22" s="25" t="s">
         <v>5</v>
       </c>
@@ -1298,16 +1328,18 @@
       <c r="Z22" s="6"/>
     </row>
     <row r="23">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="29" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="25" t="s">
-        <v>5</v>
+      <c r="D23" s="23">
+        <v>43472.0</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>48</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -1331,18 +1363,12 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
     </row>
-    <row r="24">
-      <c r="A24" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="30" t="s">
-        <v>50</v>
-      </c>
+    <row r="24" ht="12.75" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -25613,61 +25639,32 @@
       <c r="Y890" s="6"/>
       <c r="Z890" s="6"/>
     </row>
-    <row r="891" ht="12.75" customHeight="1">
-      <c r="A891" s="6"/>
-      <c r="B891" s="31"/>
-      <c r="C891" s="32"/>
-      <c r="D891" s="31"/>
-      <c r="E891" s="32"/>
-      <c r="F891" s="6"/>
-      <c r="G891" s="6"/>
-      <c r="H891" s="6"/>
-      <c r="I891" s="6"/>
-      <c r="J891" s="6"/>
-      <c r="K891" s="6"/>
-      <c r="L891" s="6"/>
-      <c r="M891" s="6"/>
-      <c r="N891" s="6"/>
-      <c r="O891" s="6"/>
-      <c r="P891" s="6"/>
-      <c r="Q891" s="6"/>
-      <c r="R891" s="6"/>
-      <c r="S891" s="6"/>
-      <c r="T891" s="6"/>
-      <c r="U891" s="6"/>
-      <c r="V891" s="6"/>
-      <c r="W891" s="6"/>
-      <c r="X891" s="6"/>
-      <c r="Y891" s="6"/>
-      <c r="Z891" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="20">
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup fitToHeight="0" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;RVersión No  . 01 Fecha de Aprobación: Enero de 2018</oddFooter>
   </headerFooter>
